--- a/data/trans_camb/PCS12_SP_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/PCS12_SP_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,55</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,21</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-7,88; 8,56</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 26,42</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-10,69; 6,02</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15,99; 30,7</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,92; 5,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,44; 27,25</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>40,65%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-4,38%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>41,47%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,84%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-16,21; 20,94</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 65,62</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-17,42; 11,69</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26,47; 60,13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,03; 12,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,48; 58,19</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,44</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 8,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,84; 3,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,66; 4,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 10,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,15; 1,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,83; 3,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 8,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,61; 0,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,21; 2,34</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,55%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,74; 18,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,94; 7,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,0; 10,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 19,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,2; 2,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,17; 5,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 16,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,65; 1,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; 4,61</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-35,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,61</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,2</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; 7,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,91; -4,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,35; 19,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,62; -10,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,47; -28,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,06; -10,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,75; -3,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,8; -19,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,36; 1,57</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,32%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,02%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,44; 19,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,12; -12,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,45; 50,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,72; -15,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,45; -42,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,45; -15,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,03; -6,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,44; -35,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,15; 2,93</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,84</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,03</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 8,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,4; 22,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 17,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,68; -0,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,31; 10,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,81; -1,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,53; 1,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,76; 14,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,38; 5,06</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,69%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,02%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,17; 24,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,6; 59,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 46,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,25; -0,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,07; 18,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,94; -2,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,79; 3,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,94; 29,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,32; 10,27</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,61</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,36</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,68</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,02</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,26</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 19,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,63; 6,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 17,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 18,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,81; 0,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 12,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,42; 16,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,29; 0,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 12,27</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,32%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,79%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,09%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,75%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 63,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,37; 20,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 60,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 43,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,06; 0,41</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; 30,03</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,79; 43,32</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,48; 1,54</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 32,73</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,06</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,96</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,26</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,66</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,93</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,22; 12,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,77; 0,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,93; 20,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,38; -5,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,96; -15,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,28; 0,79</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,89; 1,12</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,95; -10,24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 8,42</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,47%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,87%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,87%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,69%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,26%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,33%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,49%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,23; 31,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,14; 0,44</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,21; 52,74</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,72; -7,6</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,14; -22,92</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,89; 0,95</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,82; 2,05</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,76; -18,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,35; 15,71</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,2</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,11</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,62</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,31; 1,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,09; -1,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 9,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,69; 1,1</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,26; -2,53</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,74; 18,32</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,79; 0,09</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,54; -3,76</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 14,18</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,43%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,78%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,4%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,16%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,8%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,79%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,42%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,61; 3,71</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,9; -4,03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,68; 21,57</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,03; 2,07</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,32; -4,72</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,76; 35,49</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,62; 0,19</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,23; -7,53</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; 28,59</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,83</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 8,96</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,28; -1,29</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,17; 9,94</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 7,82</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,62; 1,1</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,59; -1,71</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 6,7</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,03; -2,03</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,53; 2,5</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,59%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,91%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,82%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,69%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,72%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,31%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; 24,87</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,31; -3,88</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,38; 27,31</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; 18,01</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,81; 2,43</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,21; -3,8</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 16,48</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,0; -4,84</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,22; 6,26</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 3,98</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,88; -1,12</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 7,46</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; -0,42</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,41; -6,74</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,78; 2,16</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 1,08</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; -4,72</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 3,3</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,52%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,17%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,25%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,38%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,9%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,36%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 9,66</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,47; -2,68</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,96; 17,72</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,99; -0,74</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,85; -12,1</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 3,59</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,77; 2,21</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,04; -9,52</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 6,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PCS12_SP_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,24</t>
+          <t>15,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,55</t>
+          <t>23,08</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,21</t>
+          <t>19,3</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 14,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,69; 26,42</t>
+          <t>6,66; 24,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,03; 7,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,99; 30,7</t>
+          <t>15,42; 30,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,69; 8,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,44; 27,25</t>
+          <t>12,95; 25,47</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40,65%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>40,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>38,08%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; 35,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,96; 65,62</t>
+          <t>13,85; 60,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,45; 13,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,47; 60,13</t>
+          <t>24,73; 58,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,79; 17,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,48; 58,19</t>
+          <t>24,27; 54,06</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-3,33</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 4,74</t>
+          <t>-11,15; 3,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 3,16</t>
+          <t>-8,95; 3,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 2,34</t>
+          <t>-8,19; 1,56</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>-7,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,59%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,55%</t>
+          <t>-6,19%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 10,12</t>
+          <t>-21,88; 7,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 5,68</t>
+          <t>-14,22; 5,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 4,61</t>
+          <t>-14,77; 3,08</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,2</t>
+          <t>10,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-17,18</t>
+          <t>-17,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-3,93</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 19,05</t>
+          <t>2,49; 18,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,06; -10,55</t>
+          <t>-24,44; -10,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 1,57</t>
+          <t>-8,87; 1,11</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>24,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,75%</t>
+          <t>-25,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-6,02%</t>
+          <t>-6,99%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,45; 50,2</t>
+          <t>5,01; 47,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,45; -15,97</t>
+          <t>-33,73; -16,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 2,93</t>
+          <t>-15,19; 2,02</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,67</t>
+          <t>-9,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-9,67</t>
+          <t>-18,29</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-6,7</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-6,02</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 8,81</t>
+          <t>-10,9; 4,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 17,56</t>
+          <t>-1,17; 16,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,68; -0,54</t>
+          <t>-17,3; -3,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,81; -1,36</t>
+          <t>-37,1; -6,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 1,55</t>
+          <t>-11,61; -1,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 5,06</t>
+          <t>-19,31; 1,2</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>-8,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,69%</t>
+          <t>-16,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,99%</t>
+          <t>-30,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,57%</t>
+          <t>-13,15%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>-11,83%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 24,63</t>
+          <t>-25,04; 10,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,9; 46,81</t>
+          <t>-2,55; 44,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,25; -0,92</t>
+          <t>-27,07; -5,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,94; -2,26</t>
+          <t>-59,3; -10,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 3,33</t>
+          <t>-21,62; -2,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 10,27</t>
+          <t>-36,99; 2,41</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>6,13</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 17,18</t>
+          <t>-1,43; 17,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 12,91</t>
+          <t>-4,5; 12,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 12,27</t>
+          <t>-0,06; 12,11</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>14,79%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 60,01</t>
+          <t>-3,28; 60,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 30,03</t>
+          <t>-8,34; 29,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 32,73</t>
+          <t>-0,12; 32,88</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>12,06</t>
+          <t>11,44</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,15</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,93; 20,43</t>
+          <t>3,34; 19,85</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 0,79</t>
+          <t>-14,3; 0,71</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 8,42</t>
+          <t>-3,56; 8,06</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-9,69%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>3,82%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8,21; 52,74</t>
+          <t>6,93; 51,06</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 0,95</t>
+          <t>-19,99; 0,92</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 15,71</t>
+          <t>-5,89; 15,2</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>5,36</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 9,2</t>
+          <t>-3,96; 8,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 18,32</t>
+          <t>-6,87; 26,84</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 14,18</t>
+          <t>-3,32; 20,98</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>10,4%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 21,57</t>
+          <t>-7,97; 18,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 35,49</t>
+          <t>-11,86; 52,17</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 28,59</t>
+          <t>-6,32; 42,97</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>11,22</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>3,0</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 9,94</t>
+          <t>-8,49; 40,73</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-11,59; -1,71</t>
+          <t>-11,18; -1,54</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 2,5</t>
+          <t>-7,44; 26,15</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-7,91%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-13,69%</t>
+          <t>-12,97%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-11,31%</t>
+          <t>7,02%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 27,31</t>
+          <t>-21,84; 117,63</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-23,21; -3,8</t>
+          <t>-22,58; -3,61</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 6,26</t>
+          <t>-17,28; 63,51</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>2,4</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,46</t>
+          <t>2,37; 18,24</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 2,16</t>
+          <t>-6,65; 6,21</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 3,3</t>
+          <t>-0,95; 8,87</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-5,25%</t>
+          <t>-4,09%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>2,96; 17,72</t>
+          <t>5,42; 42,77</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 3,59</t>
+          <t>-11,59; 11,04</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 6,7</t>
+          <t>-1,84; 17,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PCS12_SP_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 14,41</t>
+          <t>-2,71; 14,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 8,56</t>
+          <t>-8,09; 9,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,66; 24,81</t>
+          <t>5,55; 25,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 7,08</t>
+          <t>-10,82; 7,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 6,02</t>
+          <t>-11,39; 6,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,42; 30,11</t>
+          <t>15,6; 30,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 8,3</t>
+          <t>-3,34; 8,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 5,5</t>
+          <t>-6,74; 5,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,95; 25,47</t>
+          <t>12,66; 25,42</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 35,33</t>
+          <t>-5,75; 36,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 20,94</t>
+          <t>-16,42; 24,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,85; 60,61</t>
+          <t>11,22; 64,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 13,41</t>
+          <t>-17,46; 14,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 11,69</t>
+          <t>-18,52; 12,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,73; 58,73</t>
+          <t>25,01; 60,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 17,7</t>
+          <t>-6,19; 18,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 12,0</t>
+          <t>-12,37; 11,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,27; 54,06</t>
+          <t>23,64; 54,48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 8,24</t>
+          <t>-4,77; 8,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 3,49</t>
+          <t>-9,41; 3,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 3,52</t>
+          <t>-11,11; 3,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 10,83</t>
+          <t>-1,04; 10,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 1,12</t>
+          <t>-10,82; 1,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 3,09</t>
+          <t>-8,96; 2,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 8,6</t>
+          <t>-1,04; 7,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 0,57</t>
+          <t>-9,26; -0,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 1,56</t>
+          <t>-8,15; 1,42</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 18,16</t>
+          <t>-9,45; 17,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 7,84</t>
+          <t>-18,5; 7,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 7,78</t>
+          <t>-21,8; 8,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 19,65</t>
+          <t>-1,56; 19,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 2,07</t>
+          <t>-18,02; 1,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 5,51</t>
+          <t>-14,49; 4,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 16,44</t>
+          <t>-1,81; 15,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 1,02</t>
+          <t>-16,5; -0,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 3,08</t>
+          <t>-14,5; 2,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 7,65</t>
+          <t>-7,18; 8,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,91; -4,73</t>
+          <t>-19,06; -4,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 18,26</t>
+          <t>2,66; 17,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,62; -10,01</t>
+          <t>-24,15; -9,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,47; -28,54</t>
+          <t>-42,95; -29,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,44; -10,78</t>
+          <t>-23,5; -10,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,75; -3,44</t>
+          <t>-13,94; -2,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,8; -19,32</t>
+          <t>-29,28; -19,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 1,11</t>
+          <t>-9,39; 1,39</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 19,84</t>
+          <t>-16,34; 21,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,12; -12,2</t>
+          <t>-41,78; -12,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,01; 47,93</t>
+          <t>5,35; 45,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,72; -15,33</t>
+          <t>-33,64; -14,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,45; -42,54</t>
+          <t>-59,74; -42,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,73; -16,37</t>
+          <t>-32,51; -15,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,03; -6,51</t>
+          <t>-24,13; -6,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,44; -35,43</t>
+          <t>-49,76; -35,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 2,02</t>
+          <t>-16,17; 2,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 4,05</t>
+          <t>-11,28; 3,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,4; 22,2</t>
+          <t>7,5; 21,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 16,61</t>
+          <t>-0,46; 17,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -3,12</t>
+          <t>-17,09; -3,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 10,38</t>
+          <t>-3,77; 10,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-37,1; -6,15</t>
+          <t>-35,77; -6,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,61; -1,29</t>
+          <t>-11,81; -1,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 14,15</t>
+          <t>3,75; 14,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 1,2</t>
+          <t>-19,85; 1,78</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 10,26</t>
+          <t>-25,8; 10,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,6; 59,78</t>
+          <t>16,93; 60,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 44,81</t>
+          <t>-0,74; 47,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,07; -5,82</t>
+          <t>-26,49; -5,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 18,28</t>
+          <t>-6,03; 18,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-59,3; -10,99</t>
+          <t>-57,11; -11,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,62; -2,75</t>
+          <t>-22,21; -3,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,94; 29,35</t>
+          <t>7,01; 29,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,99; 2,41</t>
+          <t>-36,96; 3,48</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 19,62</t>
+          <t>1,13; 19,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 6,1</t>
+          <t>-11,94; 6,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 17,05</t>
+          <t>-1,62; 15,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 18,64</t>
+          <t>-0,27; 19,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 0,07</t>
+          <t>-19,3; 0,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 12,8</t>
+          <t>-4,3; 12,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,42; 16,44</t>
+          <t>3,17; 16,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 0,65</t>
+          <t>-12,94; -0,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 12,11</t>
+          <t>0,04; 12,23</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,27; 63,85</t>
+          <t>2,64; 70,09</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,37; 20,82</t>
+          <t>-30,63; 23,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 60,38</t>
+          <t>-4,85; 54,74</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 43,82</t>
+          <t>-0,5; 44,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 0,41</t>
+          <t>-36,0; 0,51</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 29,99</t>
+          <t>-7,9; 28,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>5,79; 43,32</t>
+          <t>7,33; 45,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 1,54</t>
+          <t>-29,19; -0,37</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 32,88</t>
+          <t>-0,34; 32,44</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 12,07</t>
+          <t>-4,19; 13,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 0,11</t>
+          <t>-16,37; -0,03</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,34; 19,85</t>
+          <t>3,03; 19,42</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-21,38; -5,09</t>
+          <t>-22,2; -5,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-30,96; -15,05</t>
+          <t>-31,59; -14,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 0,71</t>
+          <t>-13,45; 0,99</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 1,12</t>
+          <t>-11,23; 1,26</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-21,95; -10,24</t>
+          <t>-21,78; -9,85</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 8,06</t>
+          <t>-3,64; 7,94</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 31,93</t>
+          <t>-9,04; 32,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-36,14; 0,44</t>
+          <t>-34,68; 0,09</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>6,93; 51,06</t>
+          <t>6,48; 49,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-29,72; -7,6</t>
+          <t>-30,36; -7,87</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,14; -22,92</t>
+          <t>-44,16; -23,37</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 0,92</t>
+          <t>-18,79; 1,45</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 2,05</t>
+          <t>-19,02; 2,37</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-36,76; -18,65</t>
+          <t>-36,92; -18,5</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 15,2</t>
+          <t>-6,15; 14,99</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 1,61</t>
+          <t>-9,46; 1,84</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -1,74</t>
+          <t>-12,76; -1,34</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 8,22</t>
+          <t>-4,22; 8,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 1,1</t>
+          <t>-10,54; 1,43</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-13,26; -2,53</t>
+          <t>-13,19; -2,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 26,84</t>
+          <t>-7,33; 29,28</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 0,09</t>
+          <t>-7,89; -0,09</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-11,54; -3,76</t>
+          <t>-11,52; -3,62</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 20,98</t>
+          <t>-2,54; 25,88</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 3,71</t>
+          <t>-19,54; 4,07</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-26,9; -4,03</t>
+          <t>-26,51; -3,07</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 18,79</t>
+          <t>-8,7; 20,31</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 2,07</t>
+          <t>-17,71; 2,63</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-22,32; -4,72</t>
+          <t>-22,38; -4,44</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 52,17</t>
+          <t>-12,63; 52,34</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 0,19</t>
+          <t>-14,86; -0,19</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-21,23; -7,53</t>
+          <t>-21,48; -7,07</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 42,97</t>
+          <t>-5,05; 51,9</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 8,96</t>
+          <t>-2,06; 8,57</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-11,28; -1,29</t>
+          <t>-11,17; -1,19</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 40,73</t>
+          <t>-8,71; 38,57</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 7,82</t>
+          <t>-2,86; 7,7</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 1,1</t>
+          <t>-10,02; 0,35</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-11,18; -1,54</t>
+          <t>-11,16; -1,35</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,7</t>
+          <t>-0,66; 6,85</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-9,03; -2,03</t>
+          <t>-9,2; -2,15</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 26,15</t>
+          <t>-7,45; 23,12</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 24,87</t>
+          <t>-5,21; 24,17</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-28,31; -3,88</t>
+          <t>-27,34; -2,84</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 117,63</t>
+          <t>-21,88; 104,83</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 18,01</t>
+          <t>-5,7; 17,39</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 2,43</t>
+          <t>-20,33; 0,79</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-22,58; -3,61</t>
+          <t>-22,35; -3,05</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 16,48</t>
+          <t>-1,44; 16,68</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-20,0; -4,84</t>
+          <t>-20,69; -5,32</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 63,51</t>
+          <t>-17,34; 53,45</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,98</t>
+          <t>-1,2; 3,77</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-5,88; -1,12</t>
+          <t>-6,19; -1,13</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,37; 18,24</t>
+          <t>2,64; 19,39</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-5,27; -0,42</t>
+          <t>-5,23; -0,3</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-11,41; -6,74</t>
+          <t>-11,7; -6,83</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 6,21</t>
+          <t>-6,39; 6,39</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,08</t>
+          <t>-2,33; 1,06</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -4,72</t>
+          <t>-8,16; -4,81</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 8,87</t>
+          <t>-1,05; 8,91</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 9,66</t>
+          <t>-2,7; 9,16</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -2,68</t>
+          <t>-14,04; -2,73</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>5,42; 42,77</t>
+          <t>6,17; 46,13</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-8,99; -0,74</t>
+          <t>-9,0; -0,55</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-19,85; -12,1</t>
+          <t>-20,12; -12,3</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 11,04</t>
+          <t>-11,14; 11,3</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,21</t>
+          <t>-4,66; 2,17</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-16,04; -9,52</t>
+          <t>-16,09; -9,77</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 17,7</t>
+          <t>-2,11; 17,86</t>
         </is>
       </c>
     </row>
